--- a/codigo/losas/ejemplos/losa_rectangular_libro_solidos_efQ4_sin_rot.xlsx
+++ b/codigo/losas/ejemplos/losa_rectangular_libro_solidos_efQ4_sin_rot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -432,7 +432,7 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="6.23"/>
@@ -9969,7 +9969,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1017" style="0" width="11.52"/>
@@ -23832,11 +23832,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A122" activeCellId="0" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="14.66"/>
   </cols>
@@ -26256,11 +26256,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -26361,7 +26361,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
